--- a/app/extra/data_model.xlsx
+++ b/app/extra/data_model.xlsx
@@ -279,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,7 +305,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +313,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,12 +321,20 @@
         <v>43907</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>59</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Only dates in ISO format (yyyy-mm-dd, e.g. 2020-01-13 for 13th January 2020) can be used in this column." errorTitle="Invalide date" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A4" type="date">
+    <dataValidation allowBlank="true" error="Only dates in ISO format (yyyy-mm-dd, e.g. 2020-01-13 for 13th January 2020) can be used in this column." errorTitle="Invalide date" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A5" type="date">
       <formula1>0</formula1>
       <formula2>401769</formula2>
     </dataValidation>
